--- a/Java/Covid/Zkouseni_3C.xlsx
+++ b/Java/Covid/Zkouseni_3C.xlsx
@@ -23,19 +23,73 @@
     <t>CAS</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zlámal </t>
+  </si>
+  <si>
+    <t>08:20:00</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polaštík </t>
+  </si>
+  <si>
+    <t>08:27:14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Večeřa</t>
+  </si>
+  <si>
+    <t>08:34:28</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buriánek </t>
+  </si>
+  <si>
+    <t>08:41:42</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolařík </t>
+  </si>
+  <si>
+    <t>08:48:56</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mana </t>
+  </si>
+  <si>
+    <t>08:56:10</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">Buriánek </t>
-  </si>
-  <si>
-    <t>08:00:00</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>08:03:20</t>
+    <t>09:03:24</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kašpárek </t>
+  </si>
+  <si>
+    <t>09:10:37</t>
   </si>
   <si>
     <t>3</t>
@@ -44,7 +98,25 @@
     <t xml:space="preserve">Janoštík </t>
   </si>
   <si>
-    <t>08:06:40</t>
+    <t>09:17:50</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pluháček </t>
+  </si>
+  <si>
+    <t>09:25:03</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahradník </t>
+  </si>
+  <si>
+    <t>09:32:16</t>
   </si>
   <si>
     <t>4</t>
@@ -53,25 +125,25 @@
     <t xml:space="preserve">Kadlčák </t>
   </si>
   <si>
-    <t>08:10:00</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kašpárek </t>
-  </si>
-  <si>
-    <t>08:13:20</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolařík </t>
-  </si>
-  <si>
-    <t>08:16:40</t>
+    <t>09:39:29</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Máčalík </t>
+  </si>
+  <si>
+    <t>09:46:42</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zapletal </t>
+  </si>
+  <si>
+    <t>09:53:55</t>
   </si>
   <si>
     <t>7</t>
@@ -80,25 +152,16 @@
     <t xml:space="preserve">Kotík </t>
   </si>
   <si>
-    <t>08:20:00</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Máčalík </t>
-  </si>
-  <si>
-    <t>08:23:20</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mana </t>
-  </si>
-  <si>
-    <t>08:26:40</t>
+    <t>10:01:08</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Valenta</t>
+  </si>
+  <si>
+    <t>10:08:21</t>
   </si>
   <si>
     <t>10</t>
@@ -107,25 +170,7 @@
     <t xml:space="preserve">Novotný </t>
   </si>
   <si>
-    <t>08:30:00</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pluháček </t>
-  </si>
-  <si>
-    <t>08:33:20</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polaštík </t>
-  </si>
-  <si>
-    <t>08:36:40</t>
+    <t>10:15:34</t>
   </si>
   <si>
     <t>13</t>
@@ -134,52 +179,7 @@
     <t xml:space="preserve">Šimůnek </t>
   </si>
   <si>
-    <t>08:40:00</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Valenta</t>
-  </si>
-  <si>
-    <t>08:43:20</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Večeřa</t>
-  </si>
-  <si>
-    <t>08:46:40</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zahradník </t>
-  </si>
-  <si>
-    <t>08:50:00</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zapletal </t>
-  </si>
-  <si>
-    <t>08:53:20</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zlámal </t>
-  </si>
-  <si>
-    <t>08:56:40</t>
+    <t>10:22:47</t>
   </si>
 </sst>
 </file>
@@ -262,62 +262,62 @@
         <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>22</v>
